--- a/image.xlsx
+++ b/image.xlsx
@@ -137,7 +137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -164,7 +164,7 @@
     </font>
     <font>
       <u/>
-      <color rgb="FF1155CC"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -174,6 +174,11 @@
     </font>
     <font>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -196,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -219,7 +224,7 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -227,10 +232,13 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -563,7 +571,7 @@
       <c r="E6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="10" t="s">
         <v>25</v>
       </c>
       <c r="G6" s="9"/>
@@ -572,150 +580,150 @@
     <row r="7">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="10"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="9"/>
     </row>
     <row r="8">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="9"/>
     </row>
     <row r="9">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="10"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="9"/>
     </row>
     <row r="10">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="10"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="9"/>
     </row>
     <row r="11">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="6" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="11"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="6" t="s">
         <v>36</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="10"/>
+      <c r="G12" s="11"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="10"/>
+      <c r="G13" s="11"/>
       <c r="H13" s="9"/>
     </row>
     <row r="14">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/image.xlsx
+++ b/image.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Contact_Title</t>
   </si>
@@ -49,10 +49,7 @@
     <t>https://candid.s3-ap-southeast-2.amazonaws.com/carouselOneMobile.jpg</t>
   </si>
   <si>
-    <t>Logo_Mobile</t>
-  </si>
-  <si>
-    <t>https://candid.s3-ap-southeast-2.amazonaws.com/logoMobile.png</t>
+    <t>https://candid.s3-ap-southeast-2.amazonaws.com/logo.png</t>
   </si>
   <si>
     <t>Carousel_One_Desktop</t>
@@ -61,22 +58,10 @@
     <t>https://candid.s3-ap-southeast-2.amazonaws.com/carouselOneDesktop.jpg</t>
   </si>
   <si>
-    <t>Logo_Desktop</t>
-  </si>
-  <si>
-    <t>https://candid.s3-ap-southeast-2.amazonaws.com/logoDesktop.png</t>
-  </si>
-  <si>
     <t>Carousel_Two_Mobile</t>
   </si>
   <si>
     <t>https://candid.s3-ap-southeast-2.amazonaws.com/carouselTwoMobile.jpg</t>
-  </si>
-  <si>
-    <t>Logo_Footer</t>
-  </si>
-  <si>
-    <t>https://candid.s3-ap-southeast-2.amazonaws.com/logoFooter.png</t>
   </si>
   <si>
     <t>Carousel_Two_Desktop</t>
@@ -509,10 +494,10 @@
         <v>11</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -521,16 +506,10 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -539,16 +518,10 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -557,10 +530,10 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -569,10 +542,10 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -583,10 +556,10 @@
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="9"/>
@@ -597,10 +570,10 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="9"/>
@@ -611,10 +584,10 @@
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="9"/>
@@ -625,10 +598,10 @@
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="9"/>
@@ -639,10 +612,10 @@
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="9"/>
@@ -653,10 +626,10 @@
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="9"/>
@@ -667,10 +640,10 @@
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="9"/>
@@ -732,19 +705,17 @@
     <hyperlink r:id="rId3" ref="F2"/>
     <hyperlink r:id="rId4" ref="H2"/>
     <hyperlink r:id="rId5" ref="F3"/>
-    <hyperlink r:id="rId6" ref="H3"/>
-    <hyperlink r:id="rId7" ref="F4"/>
-    <hyperlink r:id="rId8" ref="H4"/>
-    <hyperlink r:id="rId9" ref="F5"/>
-    <hyperlink r:id="rId10" ref="F6"/>
-    <hyperlink r:id="rId11" ref="F7"/>
-    <hyperlink r:id="rId12" ref="F8"/>
-    <hyperlink r:id="rId13" ref="F9"/>
-    <hyperlink r:id="rId14" ref="F10"/>
-    <hyperlink r:id="rId15" ref="F11"/>
-    <hyperlink r:id="rId16" ref="F12"/>
-    <hyperlink r:id="rId17" ref="F13"/>
+    <hyperlink r:id="rId6" ref="F4"/>
+    <hyperlink r:id="rId7" ref="F5"/>
+    <hyperlink r:id="rId8" ref="F6"/>
+    <hyperlink r:id="rId9" ref="F7"/>
+    <hyperlink r:id="rId10" ref="F8"/>
+    <hyperlink r:id="rId11" ref="F9"/>
+    <hyperlink r:id="rId12" ref="F10"/>
+    <hyperlink r:id="rId13" ref="F11"/>
+    <hyperlink r:id="rId14" ref="F12"/>
+    <hyperlink r:id="rId15" ref="F13"/>
   </hyperlinks>
-  <drawing r:id="rId18"/>
+  <drawing r:id="rId16"/>
 </worksheet>
 </file>